--- a/data/pre_total.xlsx
+++ b/data/pre_total.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time use Analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tommi\Time-use-Analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA55209-F689-4DB7-9200-E1750070090F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DEF229-C2ED-4F8C-8798-4847CADEAA7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BBE8248-B523-449E-A9CE-D2AD6B8A1369}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>Tuesday</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Pre</t>
   </si>
 </sst>
 </file>
@@ -480,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A8BDA6-B556-40E1-B4C3-84EEBA840554}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:Z1"/>
+      <selection activeCell="AA2" sqref="AA2:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -567,8 +573,11 @@
       <c r="Z1" t="s">
         <v>31</v>
       </c>
+      <c r="AA1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,8 +656,11 @@
       <c r="Z2">
         <v>22.833333333333332</v>
       </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -727,8 +739,11 @@
       <c r="Z3">
         <v>19.833333333333332</v>
       </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -807,8 +822,11 @@
       <c r="Z4">
         <v>23.666666666666668</v>
       </c>
+      <c r="AA4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -887,8 +905,11 @@
       <c r="Z5">
         <v>27</v>
       </c>
+      <c r="AA5" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -967,8 +988,11 @@
       <c r="Z6">
         <v>13.5</v>
       </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1047,8 +1071,11 @@
       <c r="Z7">
         <v>18.666666666666668</v>
       </c>
+      <c r="AA7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1127,8 +1154,11 @@
       <c r="Z8">
         <v>20.166666666666668</v>
       </c>
+      <c r="AA8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1207,8 +1237,11 @@
       <c r="Z9">
         <v>18.166666666666664</v>
       </c>
+      <c r="AA9" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1287,8 +1320,11 @@
       <c r="Z10">
         <v>23.166666666666668</v>
       </c>
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1367,8 +1403,11 @@
       <c r="Z11">
         <v>19.5</v>
       </c>
+      <c r="AA11" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1447,8 +1486,11 @@
       <c r="Z12">
         <v>24</v>
       </c>
+      <c r="AA12" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1527,8 +1569,11 @@
       <c r="Z13">
         <v>23</v>
       </c>
+      <c r="AA13" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1607,8 +1652,11 @@
       <c r="Z14">
         <v>21.666666666666668</v>
       </c>
+      <c r="AA14" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1687,8 +1735,11 @@
       <c r="Z15">
         <v>13.666666666666666</v>
       </c>
+      <c r="AA15" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1767,8 +1818,11 @@
       <c r="Z16">
         <v>19.833333333333332</v>
       </c>
+      <c r="AA16" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1847,8 +1901,11 @@
       <c r="Z17">
         <v>17.833333333333336</v>
       </c>
+      <c r="AA17" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="Z18">
         <v>20.833333333333336</v>
       </c>
+      <c r="AA18" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2007,8 +2067,11 @@
       <c r="Z19">
         <v>22</v>
       </c>
+      <c r="AA19" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2087,8 +2150,11 @@
       <c r="Z20">
         <v>22.833333333333332</v>
       </c>
+      <c r="AA20" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2167,8 +2233,11 @@
       <c r="Z21">
         <v>21.333333333333332</v>
       </c>
+      <c r="AA21" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2247,8 +2316,11 @@
       <c r="Z22">
         <v>18.5</v>
       </c>
+      <c r="AA22" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2327,8 +2399,11 @@
       <c r="Z23">
         <v>18</v>
       </c>
+      <c r="AA23" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2407,8 +2482,11 @@
       <c r="Z24">
         <v>15.333333333333332</v>
       </c>
+      <c r="AA24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2487,8 +2565,11 @@
       <c r="Z25">
         <v>23.666666666666664</v>
       </c>
+      <c r="AA25" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2567,8 +2648,11 @@
       <c r="Z26">
         <v>30.166666666666664</v>
       </c>
+      <c r="AA26" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2646,6 +2730,9 @@
       </c>
       <c r="Z27">
         <v>22.166666666666664</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
